--- a/Evaluation files/mt5-qlora-eval.xlsx
+++ b/Evaluation files/mt5-qlora-eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elmal\Documents\SchoolNotes\CompSci685\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16468D31-6076-48C1-BD54-C58214768378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{CD7FCA09-8315-4B57-8D44-38BEE6F64C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{27EF9EE3-204A-48CC-985C-7F4704986A29}"/>
   </bookViews>
@@ -37,197 +37,197 @@
     <t>Accuracy:</t>
   </si>
   <si>
-    <t>As a result, section 7 of the Charter is inapplicable in the present case.</t>
-  </si>
-  <si>
-    <t>Both the prosecution and the applicant appealed.</t>
-  </si>
-  <si>
-    <t>This initiative will enhance the bilateral relationship with France.</t>
-  </si>
-  <si>
-    <t>Some donors are planning to go beyond their initial pledges (US, Algeria).</t>
-  </si>
-  <si>
-    <t>Thirdly, it makes available some of their surviving letters and selections from their books.</t>
-  </si>
-  <si>
-    <t>Priority will be given to creativity and innovation.</t>
-  </si>
-  <si>
-    <t>Numerous groundfish were found aboard The Rookie as well.</t>
-  </si>
-  <si>
-    <t>The refusal will be recorded and published in French only.</t>
-  </si>
-  <si>
-    <t>Would failure to perform the duty render the extension a nullity?</t>
-  </si>
-  <si>
-    <t>Parents with adult children living at home (E-STAT)</t>
-  </si>
-  <si>
-    <t>Les enfants avec enfants (E-STAT)</t>
-  </si>
-  <si>
-    <t>It may be necessary to incubate the BS agar plates for 48 + 2 hr.</t>
-  </si>
-  <si>
-    <t>This led to changes in the landscape, as forests spread into grassland areas.</t>
-  </si>
-  <si>
-    <t>Existing programs will be adapted for distance education delivery.</t>
-  </si>
-  <si>
-    <t>Historical Statistics of Canada. Section B, Vital Statistics and Health.</t>
-  </si>
-  <si>
-    <t>Les statistiques historiques de Canada.</t>
-  </si>
-  <si>
-    <t>The news on this front is not all bad.</t>
-  </si>
-  <si>
-    <t>In many cases, the A1 and A2 values listed remain essentially unchanged.</t>
-  </si>
-  <si>
-    <t>Only minor modifications were made to the criteria.</t>
-  </si>
-  <si>
-    <t>The type of management will vary depending on concerns.</t>
-  </si>
-  <si>
-    <t>Six cases have been hospitalized and to date, no serious complications have been reported.</t>
-  </si>
-  <si>
-    <t>Report all symptoms or side effects to your health care provider.</t>
-  </si>
-  <si>
-    <t>The Commission says that this data was never provided.</t>
-  </si>
-  <si>
-    <t>The EESC calls upon civil society actors in the EU and Russia to strengthen their cooperation.</t>
-  </si>
-  <si>
-    <t>II97-01; approved by CPS Board of Directors 1997; reaffirmed April 2000].</t>
-  </si>
-  <si>
-    <t>The project pilots model courts that institutionalize the use of CAM and JDR.</t>
-  </si>
-  <si>
-    <t>Judicial enforcement is not the only way of securing the rights in practice.</t>
-  </si>
-  <si>
-    <t>HVS International and Smith Travel Research, Lodging Outlook.</t>
-  </si>
-  <si>
-    <t>HVS International et Smith Travel Research, Lodging Outlook.</t>
-  </si>
-  <si>
-    <t>B-3 Classification of Loans Guaranteed by Parent Bank</t>
-  </si>
-  <si>
-    <t>B-3 Classification de Loans Guaranteed par Parent Bank</t>
-  </si>
-  <si>
-    <t>Small Craft Harbours and Real Estate Services</t>
-  </si>
-  <si>
-    <t>Les Harbours et les infrastructures de l'immobilier</t>
-  </si>
-  <si>
-    <t>Les sections 7 de la Charte est inapplicable dans la présent situation.</t>
-  </si>
-  <si>
-    <t>La prosecution et la plainte ont été refusées.</t>
-  </si>
-  <si>
-    <t>Les initiatives ont améliorer la relation avec France.</t>
-  </si>
-  <si>
-    <t>La ratification affirme l’importance de la justice internationale.</t>
-  </si>
-  <si>
-    <t>Mexico’s ratification affirms the overwhelming support for the International Criminal Court.</t>
-  </si>
-  <si>
-    <t>Les donors sont planifiés à prendre les pledges (US, Algeria).</t>
-  </si>
-  <si>
-    <t>Le troisième, il a été disponible une liste de leurs manuscrits et de leurs manuscrits.</t>
-  </si>
-  <si>
-    <t>Le Priority a été donné pour l’innovation et la innovation.</t>
-  </si>
-  <si>
-    <t>Le meilleur a été trouvé à bord The Rookie.</t>
-  </si>
-  <si>
-    <t>Le refusal doit être publié et publié dans les autres régions.</t>
-  </si>
-  <si>
-    <t>L'impossibilité de l'exercice de l'obligation de l'indépendance?</t>
-  </si>
-  <si>
-    <t>Il peut être indispensable pour l’évacuer les plates pour 48 + 2 heures.</t>
-  </si>
-  <si>
-    <t>Les changes à la landscape, à l'environnement, à la région, à la montagne, à la région.</t>
-  </si>
-  <si>
-    <t>Il est difficile à avoir un nouveau membre nouveau.</t>
-  </si>
-  <si>
-    <t>Ce programme peut être adapté pour l’école de l’enseignement.</t>
-  </si>
-  <si>
-    <t>La news sur ce front est très bien.</t>
-  </si>
-  <si>
-    <t>En certaines cases, les A1 et A2 sont très différents.</t>
-  </si>
-  <si>
-    <t>Les modifications de modifications ont été réalisées dans les criterias.</t>
-  </si>
-  <si>
-    <t>Le type de management doit varier à l’importance des concerns.</t>
-  </si>
-  <si>
-    <t>Les cases ont été hospitalisées et à date, les complications ont été enregistrées.</t>
-  </si>
-  <si>
-    <t>Les symptômes ou symptômes de l’infection ou de l’infection.</t>
-  </si>
-  <si>
-    <t>Les Commissions affirment que cette data était toujours disponible.</t>
-  </si>
-  <si>
-    <t>Le EESC appelle à l’ensemble de la société civile et de la Russie et de la Russie.</t>
-  </si>
-  <si>
-    <t>IK97-01; approved par CPS Board of Directors 1997; reaffirmé avril 2000].</t>
-  </si>
-  <si>
-    <t>Le projet pilote pilote de l’utilisation de CAM et JDR.</t>
-  </si>
-  <si>
-    <t>Le règlement de l’autorité publique est l’un moyen de protéger les droits en pratique.</t>
-  </si>
-  <si>
-    <t>It’s very difficult to get somebody new to come in.</t>
-  </si>
-  <si>
     <t>Sum</t>
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>The most appropriate approach would be the adoption of a code of conduct.</t>
+  </si>
+  <si>
+    <t>&lt;extra_id_0&gt; est l’adoption d’un code de conducte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In the afternoon, the Ombudsman will speak on the topic:</t>
+  </si>
+  <si>
+    <t>Manche à l’afternoon, les ombudsmans sont à la question:</t>
+  </si>
+  <si>
+    <t>• How to obtain a certificate of discontinuance?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • Comment l’obtenir un certificat de discontinuance?</t>
+  </si>
+  <si>
+    <t>It was a high-risk, high-payoff situation.</t>
+  </si>
+  <si>
+    <t>Les risques sont très difficiles, très risques, très risques.</t>
+  </si>
+  <si>
+    <t>• Information on air bags provided through Transport Canada.</t>
+  </si>
+  <si>
+    <t>• Information sur l'air à la transport Canada.</t>
+  </si>
+  <si>
+    <t>Perchloroethylene is widely considered environmentally undesirable.</t>
+  </si>
+  <si>
+    <t>Les chloroethylenes sont très sensibles à l’environnement.</t>
+  </si>
+  <si>
+    <t>Michael Wernick Deputy Minister Event Description:</t>
+  </si>
+  <si>
+    <t>Manche Wernick Deputy Ministre Event Description:</t>
+  </si>
+  <si>
+    <t>Click here to view our dedication page to Ernie Collison.</t>
+  </si>
+  <si>
+    <t>&lt;extra_id_0&gt; à voir la page dedication à Ernie Collison.</t>
+  </si>
+  <si>
+    <t>• to identify the product, in particular its nature and characteristics;</t>
+  </si>
+  <si>
+    <t>• identifier les producteurs, en particular l’environnement et la nature;</t>
+  </si>
+  <si>
+    <t>It should be displayed under the voted column.</t>
+  </si>
+  <si>
+    <t>Les votes sont affichées dans la column.</t>
+  </si>
+  <si>
+    <t>• The review of the project is at the conformity stage of the impact study.</t>
+  </si>
+  <si>
+    <t>• Le rapport de l’étude de l’étude est à la conformité du projet.</t>
+  </si>
+  <si>
+    <t>The timetable for the commission’s work is established in consultation with each institution.</t>
+  </si>
+  <si>
+    <t>Déclaration de la commission a été établie en consultation avec l’institution.</t>
+  </si>
+  <si>
+    <t>They are available on the Web for use by all, but particularly nations in crisis or transition.</t>
+  </si>
+  <si>
+    <t>Les Webs sont disponibles sur le Web pour les nations en transition ou transition.</t>
+  </si>
+  <si>
+    <t>The following factors must also be assessed: 1.</t>
+  </si>
+  <si>
+    <t>Les autres variables ont été examinées:</t>
+  </si>
+  <si>
+    <t>Employees need to maintain a healthy social life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les salariés doit avoir une bonne expérience professionnelle.</t>
+  </si>
+  <si>
+    <t>Costs associated with dispatching services represent about 3.5 percent of total costs.</t>
+  </si>
+  <si>
+    <t>Les prix fournis à dispatching services représentent environ 3.5 % de l’économie.</t>
+  </si>
+  <si>
+    <t>The man was reported to be "sleeping on the ice" near the west shore.</t>
+  </si>
+  <si>
+    <t>Les hommes ont été avertis de dormir sur le ice à la nuit.</t>
+  </si>
+  <si>
+    <t>These amounts, applicable since 1 January 2007, are as follows:</t>
+  </si>
+  <si>
+    <t>Les quantités, applicables à 1 avril 2007, sont suivants:</t>
+  </si>
+  <si>
+    <t>• support the international business development efforts of Canadian firms;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • supporter les activités de l'industrie américaine;</t>
+  </si>
+  <si>
+    <t>Israeli officials are in agreement with this approach.</t>
+  </si>
+  <si>
+    <t>Les experts sont en agreement avec cette approche.</t>
+  </si>
+  <si>
+    <t>The justification for any space mission has to be the results obtained.</t>
+  </si>
+  <si>
+    <t>Déclaration à la mission de la mission est à l’objet de la mission.</t>
+  </si>
+  <si>
+    <t>Most conflicts are resolved at this stage.</t>
+  </si>
+  <si>
+    <t>Les conflits ont été arrêtées à ce stage.</t>
+  </si>
+  <si>
+    <t>• Limited access for disabled visitors.</t>
+  </si>
+  <si>
+    <t>• Limited access pour les utilisateurs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • enhanced support for effective and transparent Aboriginal governments</t>
+  </si>
+  <si>
+    <t>• enhanced support pour la transparence et la transparence des gouvernements.</t>
+  </si>
+  <si>
+    <t>The concept of preventive war and its consequences for international relations (Doc.</t>
+  </si>
+  <si>
+    <t>Les concepts de preventivité et des consequences de la guerre (Doc.</t>
+  </si>
+  <si>
+    <t>• The Chief Electoral Officer must:</t>
+  </si>
+  <si>
+    <t>• Le Chief Electoral Officer doit:</t>
+  </si>
+  <si>
+    <t>Girls (48%) tend to be less active in sport than boys (61%).</t>
+  </si>
+  <si>
+    <t>Les femmes (48%) sont plus actives en sport.</t>
+  </si>
+  <si>
+    <t>Only richer farmers could afford pumps, or enjoyed access to credit.</t>
+  </si>
+  <si>
+    <t>Les agriculteurs sont à l’aide de l’argent, ou à l’argent.</t>
+  </si>
+  <si>
+    <t>The physician issued a note declaring her unfit for work until September 5, 1998.</t>
+  </si>
+  <si>
+    <t>Les physicians ont l’avis de l’étude de l’étude à septembre 5, 1998.</t>
+  </si>
+  <si>
+    <t>Specifically, the evaluation addressed the following categories of objectives:</t>
+  </si>
+  <si>
+    <t>Les conclusions de la evaluation ont été définies les suivantes:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +358,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -704,9 +711,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1085,7 +1094,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1113,524 +1122,524 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5">
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C6">
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
+      <c r="A31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C33">
         <f>SUM(C2:C31)</f>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D33">
         <f>SUM(D2:D31)</f>
@@ -1638,18 +1647,18 @@
       </c>
       <c r="E33">
         <f>SUM(E2:E31)</f>
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.5">
       <c r="C35">
         <f>AVERAGE(C2:C31)</f>
-        <v>2.1</v>
+        <v>1.9333333333333333</v>
       </c>
       <c r="D35">
         <f>AVERAGE(D2:D31)</f>
@@ -1657,7 +1666,7 @@
       </c>
       <c r="E35">
         <f>AVERAGE(E2:E31)</f>
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>
